--- a/branches/20220922_v2_10/nbr/src/sql/TableCreate/PrivateDB_Test_Func.xlsx
+++ b/branches/20220922_v2_10/nbr/src/sql/TableCreate/PrivateDB_Test_Func.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BXERP\branches\20220922_v2_10\nbr\src\sql\TableCreate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957FFFD4-211C-4422-9A2D-3C1C3E3D8EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" 命令" sheetId="1" r:id="rId1"/>
     <sheet name="FunctionTest" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,116 +46,115 @@
     <t xml:space="preserve">source </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckCommodityDependency.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 2'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckPosDependency.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 3'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckPromotionDependency.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 4'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckProviderDependency.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 5'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckPurchasingOrderDependency.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 6'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckStaffDependency.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 7'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckVipDependency.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 8'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckWarehouseDependency.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 9'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CreateCommodityHistory.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 10'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CreateRetailTradeCommoditySource.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 11'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_DeleteRetailTradeCommoditySource.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 12'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_DeleteWarehousingForReturnCommoditySheet.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 13'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_GenerateCouponSN.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 14'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_GenerateSN.sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT 'FUNC_TEST 15'$$
 </t>
   </si>
   <si>
-    <t>D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_ValidateStateChange.sql</t>
-  </si>
-  <si>
-    <t>dir /s /b D:\BXERP\branches\20190902_v1_1\src\nbr\src\sql\Function_Test\*.sql &gt;1.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>dir /s /b D:\BXERP\branches\20220922_v2_10\nbr\src\sql\Function_Test\*.sql &gt;1.txt</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckCommodityDependency.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckPosDependency.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckPromotionDependency.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckProviderDependency.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckPurchasingOrderDependency.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckStaffDependency.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckVipDependency.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckWarehouseDependency.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CreateCommodityHistory.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CreateRetailTradeCommoditySource.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_DeleteRetailTradeCommoditySource.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_DeleteWarehousingForReturnCommoditySheet.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_GenerateCouponSN.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_GenerateSN.sql</t>
+  </si>
+  <si>
+    <t>D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_ValidateStateChange.sql</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +165,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -186,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -196,6 +222,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -244,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,9 +306,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +358,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,11 +550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -502,7 +565,7 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -516,11 +579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -538,236 +601,236 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="str">
         <f>CONCATENATE(A1,B1,C1)</f>
         <v>SELECT 'FUNC_TEST 1'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckCommodityDependency.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckCommodityDependency.sql</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="str">
         <f t="shared" ref="D2:D14" si="0">CONCATENATE(A2,B2,C2)</f>
         <v>SELECT 'FUNC_TEST 2'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckPosDependency.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckPosDependency.sql</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 3'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckPromotionDependency.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckPromotionDependency.sql</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 4'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckProviderDependency.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckProviderDependency.sql</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 5'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckPurchasingOrderDependency.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckPurchasingOrderDependency.sql</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 6'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckStaffDependency.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckStaffDependency.sql</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 7'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckVipDependency.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckVipDependency.sql</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 8'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CheckWarehouseDependency.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CheckWarehouseDependency.sql</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 9'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CreateCommodityHistory.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CreateCommodityHistory.sql</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 10'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_CreateRetailTradeCommoditySource.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_CreateRetailTradeCommoditySource.sql</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 11'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_DeleteRetailTradeCommoditySource.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_DeleteRetailTradeCommoditySource.sql</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 12'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_DeleteWarehousingForReturnCommoditySheet.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_DeleteWarehousingForReturnCommoditySheet.sql</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 13'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_GenerateCouponSN.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_GenerateCouponSN.sql</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SELECT 'FUNC_TEST 14'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_GenerateSN.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_GenerateSN.sql</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="str">
         <f>CONCATENATE(A15,B15,C15)</f>
         <v>SELECT 'FUNC_TEST 15'$$
-source D:/BXERP/branches/20190902_v1_1/src/nbr/src/sql/Function_Test/Test_Func_ValidateStateChange.sql</v>
+source D:/BXERP/branches/20220922_v2_10/nbr/src/sql/Function_Test/Test_Func_ValidateStateChange.sql</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
